--- a/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910 - invrot/Summary_MM_MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910 - invrot.xlsx
+++ b/Debugg Piotr/MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910 - invrot/Summary_MM_MCBXFB_PP-Piotr-Crosscheck_Inner_Iron_600_20220519_104910 - invrot.xlsx
@@ -28,7 +28,7 @@
     <t>y [m]</t>
   </si>
   <si>
-    <t>Angle [red]</t>
+    <t>Angle (Applied Calib) [mrad]</t>
   </si>
   <si>
     <t>Space</t>
@@ -559,19 +559,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>-0.001878701992186531</v>
+        <v>-1.878254558219151</v>
       </c>
       <c r="C4">
-        <v>-0.0004630142875101391</v>
+        <v>-0.4630138540788231</v>
       </c>
       <c r="D4">
-        <v>0.0004055494792068354</v>
+        <v>0.405549601569301</v>
       </c>
       <c r="E4">
-        <v>0.0003148595838093585</v>
+        <v>0.3148656581918026</v>
       </c>
       <c r="F4">
-        <v>-0.001545016028782339</v>
+        <v>-1.546772150126008</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -579,19 +579,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>-0.004801938609134285</v>
+        <v>-4.802979709824013</v>
       </c>
       <c r="C5">
-        <v>3.797356475810644E-05</v>
+        <v>0.03797428382597332</v>
       </c>
       <c r="D5">
-        <v>-0.0009233602728192986</v>
+        <v>-0.9233603259830541</v>
       </c>
       <c r="E5">
-        <v>-0.00118856228594519</v>
+        <v>-1.188584466448584</v>
       </c>
       <c r="F5">
-        <v>-0.0007680786938411021</v>
+        <v>-0.7632690543922136</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -599,19 +599,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.3690658292480242</v>
+        <v>-392.2658837276435</v>
       </c>
       <c r="C6">
-        <v>0.04597564567309449</v>
+        <v>22.7756455936122</v>
       </c>
       <c r="D6">
-        <v>0.04676160688357435</v>
+        <v>23.56160686707991</v>
       </c>
       <c r="E6">
-        <v>0.04568665748835092</v>
+        <v>22.48665750552592</v>
       </c>
       <c r="F6">
-        <v>-0.3721291621230765</v>
+        <v>-395.329202825959</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -624,19 +624,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.769668111139855E-07</v>
+        <v>8.769714359545994E-07</v>
       </c>
       <c r="C8">
-        <v>-0.002651582251884499</v>
+        <v>-0.002651582257211951</v>
       </c>
       <c r="D8">
-        <v>-0.006816044223551161</v>
+        <v>-0.006816044222820259</v>
       </c>
       <c r="E8">
-        <v>-0.002674142749697782</v>
+        <v>-0.002674142750631105</v>
       </c>
       <c r="F8">
-        <v>-1.135952239274488E-07</v>
+        <v>-1.135932174594251E-07</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -644,19 +644,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>188.9755820411559</v>
+        <v>188.9731557884297</v>
       </c>
       <c r="C9">
-        <v>7.821907752422866</v>
+        <v>7.821903982150996</v>
       </c>
       <c r="D9">
-        <v>0.5174801218910263</v>
+        <v>0.5174788802044763</v>
       </c>
       <c r="E9">
-        <v>0.8691776125301385</v>
+        <v>0.869168110611781</v>
       </c>
       <c r="F9">
-        <v>50.32512686039429</v>
+        <v>50.32404547633205</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -664,19 +664,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>71.41713695599609</v>
+        <v>71.41400175031505</v>
       </c>
       <c r="C10">
-        <v>-22.01972627127158</v>
+        <v>-22.01972282829514</v>
       </c>
       <c r="D10">
-        <v>-7.953117320765971</v>
+        <v>-7.953123667262217</v>
       </c>
       <c r="E10">
-        <v>4.092154829837452</v>
+        <v>4.09214915088585</v>
       </c>
       <c r="F10">
-        <v>-7.101972541385742</v>
+        <v>-7.104282502350936</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -684,19 +684,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>12.41839276579834</v>
+        <v>12.41780556909741</v>
       </c>
       <c r="C11">
-        <v>1.673184255110664</v>
+        <v>1.673181625290483</v>
       </c>
       <c r="D11">
-        <v>0.5627321914706952</v>
+        <v>0.5627281099094645</v>
       </c>
       <c r="E11">
-        <v>-0.4444226322666983</v>
+        <v>-0.4444351615046812</v>
       </c>
       <c r="F11">
-        <v>4.1138696251945</v>
+        <v>4.11342862896872</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -704,19 +704,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>-3.114894251120417</v>
+        <v>-3.114753937149769</v>
       </c>
       <c r="C12">
-        <v>-12.56801644145761</v>
+        <v>-12.56801527822683</v>
       </c>
       <c r="D12">
-        <v>-6.387797494015217</v>
+        <v>-6.387799903847708</v>
       </c>
       <c r="E12">
-        <v>-1.20390353918301</v>
+        <v>-1.203907533132307</v>
       </c>
       <c r="F12">
-        <v>0.1124073613944396</v>
+        <v>0.1128976270404542</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -724,19 +724,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>-1.47775204657728</v>
+        <v>-1.478038385738615</v>
       </c>
       <c r="C13">
-        <v>0.958997158415021</v>
+        <v>0.9589965038211522</v>
       </c>
       <c r="D13">
-        <v>0.324087579586526</v>
+        <v>0.3240881519590781</v>
       </c>
       <c r="E13">
-        <v>-0.4288108785453202</v>
+        <v>-0.4288208033557118</v>
       </c>
       <c r="F13">
-        <v>-0.6576779964953419</v>
+        <v>-0.6580408656505794</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -744,19 +744,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.04011442763444111</v>
+        <v>0.04035231736247333</v>
       </c>
       <c r="C14">
-        <v>-11.23443023623179</v>
+        <v>-11.23443064953607</v>
       </c>
       <c r="D14">
-        <v>0.5971357585697724</v>
+        <v>0.5971350954597363</v>
       </c>
       <c r="E14">
-        <v>-7.223509928729779</v>
+        <v>-7.2235103611293</v>
       </c>
       <c r="F14">
-        <v>-0.5475289990394001</v>
+        <v>-0.5471044368100109</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -764,19 +764,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.478562855821333</v>
+        <v>1.478492464735765</v>
       </c>
       <c r="C15">
-        <v>0.2844727828845621</v>
+        <v>0.2844736504924586</v>
       </c>
       <c r="D15">
-        <v>0.07364767512034119</v>
+        <v>0.07364789773916579</v>
       </c>
       <c r="E15">
-        <v>-0.07045924078736783</v>
+        <v>-0.07045736069114217</v>
       </c>
       <c r="F15">
-        <v>0.40477031979481</v>
+        <v>0.4042673151767437</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -784,19 +784,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.054410166727735</v>
+        <v>1.054516734028498</v>
       </c>
       <c r="C16">
-        <v>-2.898544492827011</v>
+        <v>-2.898544056167189</v>
       </c>
       <c r="D16">
-        <v>1.240874942164785</v>
+        <v>1.240875420663939</v>
       </c>
       <c r="E16">
-        <v>-1.564504616026816</v>
+        <v>-1.564503761857412</v>
       </c>
       <c r="F16">
-        <v>0.5870506770076854</v>
+        <v>0.5866085251904827</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -804,19 +804,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>-2.638067797768393E-17</v>
+        <v>6.475625614760277E-17</v>
       </c>
       <c r="C17">
-        <v>1.410242096461168E-18</v>
+        <v>6.528298314479879E-18</v>
       </c>
       <c r="D17">
-        <v>-2.951133988083405E-17</v>
+        <v>4.33635117976238E-20</v>
       </c>
       <c r="E17">
-        <v>-1.584279220662424E-17</v>
+        <v>3.647118992975005E-18</v>
       </c>
       <c r="F17">
-        <v>3.427644665230956E-18</v>
+        <v>-2.458443909460266E-18</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -824,19 +824,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>-1.070509698867602</v>
+        <v>-1.070324014428344</v>
       </c>
       <c r="C18">
-        <v>-0.01443584169116659</v>
+        <v>-0.01443658240366295</v>
       </c>
       <c r="D18">
-        <v>2.968015549345504</v>
+        <v>2.968015644032009</v>
       </c>
       <c r="E18">
-        <v>0.5960524857065508</v>
+        <v>0.596055388266211</v>
       </c>
       <c r="F18">
-        <v>-0.1566655372858191</v>
+        <v>-0.1563212976863732</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -844,19 +844,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.01280030770078555</v>
+        <v>0.01333278545622802</v>
       </c>
       <c r="C19">
-        <v>0.2051461768129184</v>
+        <v>0.2051460290589458</v>
       </c>
       <c r="D19">
-        <v>0.01835766016984368</v>
+        <v>0.01835768589162691</v>
       </c>
       <c r="E19">
-        <v>-0.06987706425274653</v>
+        <v>-0.06988007836756907</v>
       </c>
       <c r="F19">
-        <v>-0.2674292960496649</v>
+        <v>-0.2677178118974511</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -864,19 +864,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.4637177641743722</v>
+        <v>0.463726446953921</v>
       </c>
       <c r="C20">
-        <v>-1.619194724629072</v>
+        <v>-1.619194797771774</v>
       </c>
       <c r="D20">
-        <v>-1.791650681036517</v>
+        <v>-1.791649774768876</v>
       </c>
       <c r="E20">
-        <v>-1.408930039875854</v>
+        <v>-1.408928637222163</v>
       </c>
       <c r="F20">
-        <v>-0.08683034057531416</v>
+        <v>-0.08772105804732318</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -884,19 +884,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>-0.2286831349770913</v>
+        <v>-0.2289838296089637</v>
       </c>
       <c r="C21">
-        <v>-0.006635110425154675</v>
+        <v>-0.006635381654355193</v>
       </c>
       <c r="D21">
-        <v>0.01120403169468656</v>
+        <v>0.01120534535638888</v>
       </c>
       <c r="E21">
-        <v>-0.02436645744512046</v>
+        <v>-0.02436503530248415</v>
       </c>
       <c r="F21">
-        <v>0.178297408690165</v>
+        <v>0.1783486043926092</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -904,19 +904,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>-0.2621917117850459</v>
+        <v>-0.2620442788301259</v>
       </c>
       <c r="C22">
-        <v>-0.004788646947503333</v>
+        <v>-0.004787420437338399</v>
       </c>
       <c r="D22">
-        <v>0.2492691773388665</v>
+        <v>0.2492697454198388</v>
       </c>
       <c r="E22">
-        <v>0.08709692905823192</v>
+        <v>0.08709720788782269</v>
       </c>
       <c r="F22">
-        <v>-0.2721515577853965</v>
+        <v>-0.2723455817354835</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -929,19 +929,19 @@
         <v>21</v>
       </c>
       <c r="B24">
-        <v>6.691560283308973E-21</v>
+        <v>2.032879073410321E-21</v>
       </c>
       <c r="C24">
-        <v>-6.979551485375434E-20</v>
+        <v>-2.3242584072658E-19</v>
       </c>
       <c r="D24">
-        <v>-3.279711571768651E-19</v>
+        <v>-3.821812658011403E-19</v>
       </c>
       <c r="E24">
-        <v>-1.260385025514399E-19</v>
+        <v>-1.53821183221381E-19</v>
       </c>
       <c r="F24">
-        <v>4.743384504624082E-21</v>
+        <v>3.726944967918922E-21</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -949,19 +949,19 @@
         <v>22</v>
       </c>
       <c r="B25">
-        <v>302.3014726511751</v>
+        <v>302.2965299080673</v>
       </c>
       <c r="C25">
-        <v>-10.05390932919174</v>
+        <v>-10.05390969626546</v>
       </c>
       <c r="D25">
-        <v>1.903569914183022</v>
+        <v>1.903570930736036</v>
       </c>
       <c r="E25">
-        <v>-2.349062316385639</v>
+        <v>-2.349043554795299</v>
       </c>
       <c r="F25">
-        <v>37.17035801179595</v>
+        <v>37.16693418914968</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -969,19 +969,19 @@
         <v>23</v>
       </c>
       <c r="B26">
-        <v>-11.25501786220321</v>
+        <v>-11.25892611104286</v>
       </c>
       <c r="C26">
-        <v>-1.308313123372093</v>
+        <v>-1.308313109117368</v>
       </c>
       <c r="D26">
-        <v>-0.5148799718803732</v>
+        <v>-0.5148790671947321</v>
       </c>
       <c r="E26">
-        <v>-0.7395757258301057</v>
+        <v>-0.7395713809984628</v>
       </c>
       <c r="F26">
-        <v>-4.182614547414145</v>
+        <v>-4.185628340108831</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -989,19 +989,19 @@
         <v>24</v>
       </c>
       <c r="B27">
-        <v>-15.23276802459518</v>
+        <v>-15.2366748473057</v>
       </c>
       <c r="C27">
-        <v>-1.289753431560622</v>
+        <v>-1.28975362311716</v>
       </c>
       <c r="D27">
-        <v>1.971927856789248</v>
+        <v>1.971928993020358</v>
       </c>
       <c r="E27">
-        <v>0.6709566482785287</v>
+        <v>0.6709675670986052</v>
       </c>
       <c r="F27">
-        <v>0.7035587650702773</v>
+        <v>0.6994077775099248</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1009,19 +1009,19 @@
         <v>25</v>
       </c>
       <c r="B28">
-        <v>-2.56542371950677</v>
+        <v>-2.565350555606758</v>
       </c>
       <c r="C28">
-        <v>-0.3015964223081186</v>
+        <v>-0.3015965082926755</v>
       </c>
       <c r="D28">
-        <v>-0.150511587078253</v>
+        <v>-0.1505112017307146</v>
       </c>
       <c r="E28">
-        <v>-0.21708427452463</v>
+        <v>-0.2170808295180481</v>
       </c>
       <c r="F28">
-        <v>-0.1324261251195917</v>
+        <v>-0.1332245036214679</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1029,19 +1029,19 @@
         <v>26</v>
       </c>
       <c r="B29">
-        <v>0.3472034482558791</v>
+        <v>0.3474007573240736</v>
       </c>
       <c r="C29">
-        <v>-0.2868087055028936</v>
+        <v>-0.2868094845496386</v>
       </c>
       <c r="D29">
-        <v>0.7469508351088125</v>
+        <v>0.7469510159690004</v>
       </c>
       <c r="E29">
-        <v>0.5125979851862399</v>
+        <v>0.5126182760709773</v>
       </c>
       <c r="F29">
-        <v>-0.7149415989145681</v>
+        <v>-0.7152560502407141</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1049,19 +1049,19 @@
         <v>27</v>
       </c>
       <c r="B30">
-        <v>0.7611656372782389</v>
+        <v>0.7608778760016016</v>
       </c>
       <c r="C30">
-        <v>-0.2616739945375722</v>
+        <v>-0.2616738710771027</v>
       </c>
       <c r="D30">
-        <v>-0.09887633712548149</v>
+        <v>-0.09887619954692628</v>
       </c>
       <c r="E30">
-        <v>-0.1495549069635463</v>
+        <v>-0.1495549676776352</v>
       </c>
       <c r="F30">
-        <v>0.5356284269449797</v>
+        <v>0.5359419284296276</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1069,19 +1069,19 @@
         <v>28</v>
       </c>
       <c r="B31">
-        <v>-0.3098630487860387</v>
+        <v>-0.3101588046982108</v>
       </c>
       <c r="C31">
-        <v>-0.08113736175776215</v>
+        <v>-0.08113803360819624</v>
       </c>
       <c r="D31">
-        <v>0.1759733509109163</v>
+        <v>0.175973362552318</v>
       </c>
       <c r="E31">
-        <v>0.1491293656129518</v>
+        <v>0.1491356450357896</v>
       </c>
       <c r="F31">
-        <v>-0.09261325611615853</v>
+        <v>-0.09190185397025438</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1089,19 +1089,19 @@
         <v>29</v>
       </c>
       <c r="B32">
-        <v>-0.2404011088845965</v>
+        <v>-0.2403262890709873</v>
       </c>
       <c r="C32">
-        <v>-0.08760964310316133</v>
+        <v>-0.0876097606418057</v>
       </c>
       <c r="D32">
-        <v>-0.002057024645096717</v>
+        <v>-0.002057124327994181</v>
       </c>
       <c r="E32">
-        <v>0.01668512877458239</v>
+        <v>0.0166858981503544</v>
       </c>
       <c r="F32">
-        <v>0.01361227835521668</v>
+        <v>0.01333704839678775</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1109,19 +1109,19 @@
         <v>30</v>
       </c>
       <c r="B33">
-        <v>7.22315498051569E-17</v>
+        <v>8.106488840718597E-17</v>
       </c>
       <c r="C33">
-        <v>2.946435754411013E-20</v>
+        <v>1.358588447395915E-17</v>
       </c>
       <c r="D33">
-        <v>2.479217163001899E-17</v>
+        <v>1.239401891978121E-17</v>
       </c>
       <c r="E33">
-        <v>-1.586228156775743E-17</v>
+        <v>-7.161343645519721E-18</v>
       </c>
       <c r="F33">
-        <v>3.241196191278091E-18</v>
+        <v>-6.871046518046428E-18</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1129,19 +1129,19 @@
         <v>31</v>
       </c>
       <c r="B34">
-        <v>0.2257087522429964</v>
+        <v>0.225654165227349</v>
       </c>
       <c r="C34">
-        <v>-0.03646674301339015</v>
+        <v>-0.03646637802069519</v>
       </c>
       <c r="D34">
-        <v>0.03086909885862875</v>
+        <v>0.03086898134672329</v>
       </c>
       <c r="E34">
-        <v>-0.1738628478281032</v>
+        <v>-0.1738625213546971</v>
       </c>
       <c r="F34">
-        <v>0.2569040381418958</v>
+        <v>0.2565312580026899</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1149,19 +1149,19 @@
         <v>32</v>
       </c>
       <c r="B35">
-        <v>-0.2389652409785215</v>
+        <v>-0.2388361879742172</v>
       </c>
       <c r="C35">
-        <v>-0.09050062438498263</v>
+        <v>-0.09050101274976557</v>
       </c>
       <c r="D35">
-        <v>0.02681507414832962</v>
+        <v>0.02681472471920856</v>
       </c>
       <c r="E35">
-        <v>0.08786482326469787</v>
+        <v>0.08787256255580785</v>
       </c>
       <c r="F35">
-        <v>-0.2988662366087227</v>
+        <v>-0.2988799806238568</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1169,19 +1169,19 @@
         <v>33</v>
       </c>
       <c r="B36">
-        <v>0.4087393184605121</v>
+        <v>0.4092811204198467</v>
       </c>
       <c r="C36">
-        <v>-0.01674286996646506</v>
+        <v>-0.01674276019335641</v>
       </c>
       <c r="D36">
-        <v>-0.03566403676302089</v>
+        <v>-0.0356648156869832</v>
       </c>
       <c r="E36">
-        <v>-0.01286972259433113</v>
+        <v>-0.01287140980407399</v>
       </c>
       <c r="F36">
-        <v>0.255398971244153</v>
+        <v>0.2556068151488637</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1189,19 +1189,19 @@
         <v>34</v>
       </c>
       <c r="B37">
-        <v>0.8106005110317135</v>
+        <v>0.8105011354843568</v>
       </c>
       <c r="C37">
-        <v>-0.003835695196343573</v>
+        <v>-0.003835476128365216</v>
       </c>
       <c r="D37">
-        <v>-0.001017021746232154</v>
+        <v>-0.001017897379933468</v>
       </c>
       <c r="E37">
-        <v>-0.001101809753791188</v>
+        <v>-0.001103522967368812</v>
       </c>
       <c r="F37">
-        <v>0.3912421033251613</v>
+        <v>0.3909215491016269</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1209,19 +1209,19 @@
         <v>35</v>
       </c>
       <c r="B38">
-        <v>-0.2236148597606508</v>
+        <v>-0.2236800329429706</v>
       </c>
       <c r="C38">
-        <v>-0.009095269030828967</v>
+        <v>-0.009095994218501505</v>
       </c>
       <c r="D38">
-        <v>0.02288377045503222</v>
+        <v>0.02288343962778815</v>
       </c>
       <c r="E38">
-        <v>-0.006167012191431023</v>
+        <v>-0.006167092797012524</v>
       </c>
       <c r="F38">
-        <v>0.09166356545582818</v>
+        <v>0.0917683577771896</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1254,19 +1254,19 @@
         <v>37</v>
       </c>
       <c r="B41">
-        <v>0.0008769668111139855</v>
+        <v>0.0008769714359545994</v>
       </c>
       <c r="C41">
-        <v>-2.651582251884499</v>
+        <v>-2.651582257211951</v>
       </c>
       <c r="D41">
-        <v>-6.816044223551161</v>
+        <v>-6.816044222820259</v>
       </c>
       <c r="E41">
-        <v>-2.674142749697782</v>
+        <v>-2.674142750631105</v>
       </c>
       <c r="F41">
-        <v>-0.0001135952239274488</v>
+        <v>-0.0001135932174594251</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1274,19 +1274,19 @@
         <v>38</v>
       </c>
       <c r="B42">
-        <v>0.0001753933622227971</v>
+        <v>0.0001753942871909199</v>
       </c>
       <c r="C42">
-        <v>-0.5303164503768998</v>
+        <v>-0.5303164514423901</v>
       </c>
       <c r="D42">
-        <v>-1.363208844710232</v>
+        <v>-1.363208844564052</v>
       </c>
       <c r="E42">
-        <v>-0.5348285499395564</v>
+        <v>-0.534828550126221</v>
       </c>
       <c r="F42">
-        <v>-2.271904478548975E-05</v>
+        <v>-2.271864349188502E-05</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1294,19 +1294,19 @@
         <v>39</v>
       </c>
       <c r="B43">
-        <v>-7.223180860734312E-05</v>
+        <v>-7.223218954119889E-05</v>
       </c>
       <c r="C43">
-        <v>0.2183988941171625</v>
+        <v>0.218398894575774</v>
       </c>
       <c r="D43">
-        <v>0.5614068805971516</v>
+        <v>0.5614068805878815</v>
       </c>
       <c r="E43">
-        <v>0.2202571007670418</v>
+        <v>0.2202571008638972</v>
       </c>
       <c r="F43">
-        <v>9.35632725144176E-06</v>
+        <v>9.356161988551463E-06</v>
       </c>
     </row>
   </sheetData>
